--- a/data/LEAP_Supply_Emissions.xlsx
+++ b/data/LEAP_Supply_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giann\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3093FD39-C590-4D78-BEAE-DE104F7E9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D5E59-D490-4C07-893D-53AF44BE292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="17">
   <si>
     <t>Branch</t>
   </si>
@@ -62,12 +62,43 @@
   <si>
     <t>Oil Refining</t>
   </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;&quot;\-&quot;&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +109,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +144,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,27 +489,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F58F65-D173-4C9B-B57C-646E19A136BF}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -481,7 +520,7 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2"/>
@@ -489,12 +528,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2">
-        <v>16.899999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C2" s="2">
         <v>0.4</v>
@@ -510,7 +549,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -531,7 +570,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -552,7 +591,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -573,7 +612,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
@@ -594,7 +633,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
@@ -615,7 +654,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
@@ -636,7 +675,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
@@ -657,7 +696,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
@@ -678,7 +717,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2031</v>
       </c>
@@ -699,7 +738,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2032</v>
       </c>
@@ -720,7 +759,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2033</v>
       </c>
@@ -741,7 +780,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2034</v>
       </c>
@@ -762,7 +801,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2035</v>
       </c>
@@ -783,7 +822,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2036</v>
       </c>
@@ -804,7 +843,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2037</v>
       </c>
@@ -825,7 +864,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2038</v>
       </c>
@@ -846,7 +885,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2039</v>
       </c>
@@ -867,7 +906,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2040</v>
       </c>
@@ -888,7 +927,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2041</v>
       </c>
@@ -909,7 +948,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2042</v>
       </c>
@@ -930,7 +969,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2043</v>
       </c>
@@ -951,7 +990,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2044</v>
       </c>
@@ -972,7 +1011,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2045</v>
       </c>
@@ -993,7 +1032,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2046</v>
       </c>
@@ -1014,7 +1053,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2047</v>
       </c>
@@ -1035,7 +1074,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2048</v>
       </c>
@@ -1056,7 +1095,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2049</v>
       </c>
@@ -1077,7 +1116,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2050</v>
       </c>
@@ -1098,20 +1137,20 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2022</v>
       </c>
-      <c r="B31" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B31" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="3"/>
@@ -1119,20 +1158,20 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2023</v>
       </c>
-      <c r="B32" s="2">
-        <v>20.8</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="B32" s="4">
+        <v>15.567281413423549</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.45760701695182621</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8.7955552325378008</v>
+      </c>
+      <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="3"/>
@@ -1140,20 +1179,20 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2024</v>
       </c>
-      <c r="B33" s="2">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="B33" s="4">
+        <v>13.362204057719648</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.46738452539406389</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8.4733959876694485</v>
+      </c>
+      <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="3"/>
@@ -1161,20 +1200,20 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
-      <c r="B34" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B34" s="4">
+        <v>11.117022505496621</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.41920617140989214</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8.1512367428010997</v>
+      </c>
+      <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="3"/>
@@ -1182,20 +1221,20 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2026</v>
       </c>
-      <c r="B35" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="4">
+        <v>9.9235981472836396</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.41581723098753076</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7.9404351840834675</v>
+      </c>
+      <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="3"/>
@@ -1203,20 +1242,20 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2027</v>
       </c>
-      <c r="B36" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="B36" s="4">
+        <v>8.6526659590151862</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.41255841053577058</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7.7296336253658362</v>
+      </c>
+      <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="3"/>
@@ -1224,20 +1263,20 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2028</v>
       </c>
-      <c r="B37" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="B37" s="4">
+        <v>7.3128338140951392</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.40938805296495456</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7.5188320666482076</v>
+      </c>
+      <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="3"/>
@@ -1245,20 +1284,20 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2029</v>
       </c>
-      <c r="B38" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="B38" s="4">
+        <v>5.9125349449794813</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.40631095513049537</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7.3080305079305763</v>
+      </c>
+      <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="3"/>
@@ -1266,20 +1305,20 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2030</v>
       </c>
-      <c r="B39" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="B39" s="4">
+        <v>4.460048889150416</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.19494018148413436</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7.0972289492129468</v>
+      </c>
+      <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="3"/>
@@ -1287,20 +1326,20 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2031</v>
       </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D40" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="B40" s="4">
+        <v>4.0335421689902811</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.19354295035780897</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7.0813641260222608</v>
+      </c>
+      <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="3"/>
@@ -1308,20 +1347,20 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2032</v>
       </c>
-      <c r="B41" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="4">
+        <v>3.5487999124338048</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.19262724981945006</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7.065499302831574</v>
+      </c>
+      <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="3"/>
@@ -1329,20 +1368,20 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2033</v>
       </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="2">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="B42" s="4">
+        <v>3.0109962897757909</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.19173951102920284</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7.0496344796408863</v>
+      </c>
+      <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="3"/>
@@ -1350,20 +1389,20 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2034</v>
       </c>
-      <c r="B43" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D43" s="2">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="B43" s="4">
+        <v>2.4255305951410384</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.19087254766208303</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.0337696564502012</v>
+      </c>
+      <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="3"/>
@@ -1371,20 +1410,20 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2035</v>
       </c>
-      <c r="B44" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="2">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="B44" s="4">
+        <v>1.7977764855499567</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.19001726532108762</v>
+      </c>
+      <c r="D44" s="4">
+        <v>7.0179048332595153</v>
+      </c>
+      <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="3"/>
@@ -1392,20 +1431,20 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2036</v>
       </c>
-      <c r="B45" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="B45" s="4">
+        <v>1.8214230680510761</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.18919070455889953</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6.804367960198662</v>
+      </c>
+      <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="3"/>
@@ -1413,20 +1452,20 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2037</v>
       </c>
-      <c r="B46" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="4">
+        <v>1.8231966497778194</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.18943960390154294</v>
+      </c>
+      <c r="D46" s="4">
+        <v>6.5908310871378086</v>
+      </c>
+      <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="3"/>
@@ -1434,20 +1473,20 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2038</v>
       </c>
-      <c r="B47" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="B47" s="4">
+        <v>1.8054572646560332</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.18968462827164853</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6.3772942140769571</v>
+      </c>
+      <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="3"/>
@@ -1455,20 +1494,20 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2039</v>
       </c>
-      <c r="B48" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="B48" s="4">
+        <v>1.7706020472562292</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.18992343214991622</v>
+      </c>
+      <c r="D48" s="4">
+        <v>6.1637573410161046</v>
+      </c>
+      <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="3"/>
@@ -1476,20 +1515,20 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2040</v>
       </c>
-      <c r="B49" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D49" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="B49" s="4">
+        <v>1.7208431126003227</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.19015354276887778</v>
+      </c>
+      <c r="D49" s="4">
+        <v>5.9502204679552522</v>
+      </c>
+      <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="3"/>
@@ -1497,20 +1536,20 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2041</v>
       </c>
-      <c r="B50" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="4">
+        <v>1.7221459086719595</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.18704567381120546</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5.8026958477108215</v>
+      </c>
+      <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="3"/>
@@ -1518,20 +1557,20 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2042</v>
       </c>
-      <c r="B51" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D51" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="B51" s="4">
+        <v>1.7086769704749942</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.18308627164470717</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5.6551712274663899</v>
+      </c>
+      <c r="E51" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="3"/>
@@ -1539,20 +1578,20 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2043</v>
       </c>
-      <c r="B52" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="B52" s="4">
+        <v>1.6815807459389902</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.17911791452092982</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.5076466072219574</v>
+      </c>
+      <c r="E52" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="3"/>
@@ -1560,20 +1599,20 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2044</v>
       </c>
-      <c r="B53" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D53" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="B53" s="4">
+        <v>1.6418488983906898</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.17513808764191349</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5.3601219869775276</v>
+      </c>
+      <c r="E53" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="3"/>
@@ -1581,20 +1620,20 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2045</v>
       </c>
-      <c r="B54" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D54" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="B54" s="4">
+        <v>1.5904589726465417</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.17114428334145895</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5.2125973667330943</v>
+      </c>
+      <c r="E54" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="3"/>
@@ -1602,20 +1641,20 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2046</v>
       </c>
-      <c r="B55" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="B55" s="4">
+        <v>1.732235142284567</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.16603662200786526</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4.8296533586820356</v>
+      </c>
+      <c r="E55" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="3"/>
@@ -1623,20 +1662,20 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2047</v>
       </c>
-      <c r="B56" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D56" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="B56" s="4">
+        <v>1.8609853838982291</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.1611784598246804</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4.4467093506309787</v>
+      </c>
+      <c r="E56" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="3"/>
@@ -1644,20 +1683,20 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2048</v>
       </c>
-      <c r="B57" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="B57" s="4">
+        <v>1.9773303036364824</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.15630109947948331</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4.0637653425799218</v>
+      </c>
+      <c r="E57" t="s">
         <v>3</v>
       </c>
       <c r="F57" s="3"/>
@@ -1665,20 +1704,20 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2049</v>
       </c>
-      <c r="B58" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D58" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="B58" s="4">
+        <v>2.081890494500962</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.15140377162100499</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3.6808213345288618</v>
+      </c>
+      <c r="E58" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="3"/>
@@ -1686,26 +1725,4463 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2050</v>
       </c>
-      <c r="B59" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B59" s="4">
+        <v>2.1752559639475084</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.14648655656360937</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3.297877326477805</v>
+      </c>
+      <c r="E59" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D60" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="4">
+        <v>17.09954269631368</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.44690302019649802</v>
+      </c>
+      <c r="D61" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B62" s="4">
+        <v>16.613610763045116</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.44531840063169853</v>
+      </c>
+      <c r="D62" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="4">
+        <v>16.121599621980053</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.4438419950168585</v>
+      </c>
+      <c r="D63" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B64" s="4">
+        <v>15.631614900310174</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.44247015843299459</v>
+      </c>
+      <c r="D64" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B65" s="4">
+        <v>15.134804265510748</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.44120293298877877</v>
+      </c>
+      <c r="D65" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B66" s="4">
+        <v>14.631221356729668</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.4400445291801402</v>
+      </c>
+      <c r="D66" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B67" s="4">
+        <v>14.120947798898387</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.43900336799530676</v>
+      </c>
+      <c r="D67" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B68" s="4">
+        <v>13.603993126373963</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.43808292200835486</v>
+      </c>
+      <c r="D68" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B69" s="4">
+        <v>13.556388852753926</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.4372809777564905</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B70" s="4">
+        <v>13.507661680637439</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.43658190835935839</v>
+      </c>
+      <c r="D70" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B71" s="4">
+        <v>13.457532012396763</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.43595493815823105</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B72" s="4">
+        <v>13.405637784274838</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.43536178205896808</v>
+      </c>
+      <c r="D72" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B73" s="4">
+        <v>13.351686065487833</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.43477136055239773</v>
+      </c>
+      <c r="D73" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B74" s="4">
+        <v>13.295604779200508</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.43416778664106492</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B75" s="4">
+        <v>13.237307306797206</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.43354754433553078</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B76" s="4">
+        <v>13.176754502488349</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.4329048170814177</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B77" s="4">
+        <v>13.113955949569091</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.43223860651670032</v>
+      </c>
+      <c r="D77" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B78" s="4">
+        <v>13.048894581909721</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.43154539666510899</v>
+      </c>
+      <c r="D78" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B79" s="4">
+        <v>12.981083866527134</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.4308198483605637</v>
+      </c>
+      <c r="D79" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B80" s="4">
+        <v>12.910927023281021</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.43005323686306118</v>
+      </c>
+      <c r="D80" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B81" s="4">
+        <v>12.835816752070002</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.42923575216051824</v>
+      </c>
+      <c r="D81" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B82" s="4">
+        <v>12.757792061216547</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.42835780127646594</v>
+      </c>
+      <c r="D82" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B83" s="4">
+        <v>12.677241846477918</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.42741222203417933</v>
+      </c>
+      <c r="D83" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B84" s="4">
+        <v>12.593483665200477</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.42639610608167061</v>
+      </c>
+      <c r="D84" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B85" s="4">
+        <v>12.506802276454545</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.42531153704023217</v>
+      </c>
+      <c r="D85" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B86" s="4">
+        <v>12.417687814492478</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.42415981712504924</v>
+      </c>
+      <c r="D86" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B87" s="4">
+        <v>12.326200253975752</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.42294511342247804</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B88" s="4">
+        <v>12.232412289557043</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.42167289523301826</v>
+      </c>
+      <c r="D88" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D89" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="4">
+        <v>17.01447385163851</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.44690302019649802</v>
+      </c>
+      <c r="D90" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B91" s="4">
+        <v>16.442507780310798</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.44531840063169853</v>
+      </c>
+      <c r="D91" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="4">
+        <v>15.863489229877665</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.4438419950168585</v>
+      </c>
+      <c r="D92" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B93" s="4">
+        <v>15.285335085211207</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.44247015843299459</v>
+      </c>
+      <c r="D93" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B94" s="4">
+        <v>14.699276054534495</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.44120293298877877</v>
+      </c>
+      <c r="D94" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B95" s="4">
+        <v>14.105354392780869</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.4400445291801402</v>
+      </c>
+      <c r="D95" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B96" s="4">
+        <v>13.503635839505741</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.43900336799530676</v>
+      </c>
+      <c r="D96" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B97" s="4">
+        <v>12.894112851682785</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.43808292200835486</v>
+      </c>
+      <c r="D97" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B98" s="4">
+        <v>12.752704819187715</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.4372809777564905</v>
+      </c>
+      <c r="D98" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B99" s="4">
+        <v>12.609009804527153</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.43658190835935839</v>
+      </c>
+      <c r="D99" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B100" s="4">
+        <v>12.462756313632264</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.43595493815823105</v>
+      </c>
+      <c r="D100" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B101" s="4">
+        <v>12.313605026188727</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.43536178205896808</v>
+      </c>
+      <c r="D101" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B102" s="4">
+        <v>12.161290459510191</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.43477136055239773</v>
+      </c>
+      <c r="D102" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B103" s="4">
+        <v>12.005755819796654</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.43416778664106492</v>
+      </c>
+      <c r="D103" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B104" s="4">
+        <v>11.846933959767409</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.43354754433553078</v>
+      </c>
+      <c r="D104" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B105" s="4">
+        <v>11.684803108427166</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.4329048170814177</v>
+      </c>
+      <c r="D105" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B106" s="4">
+        <v>11.519386164346267</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.43223860651670032</v>
+      </c>
+      <c r="D106" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B107" s="4">
+        <v>11.350683145356848</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.43154539666510899</v>
+      </c>
+      <c r="D107" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B108" s="4">
+        <v>11.178291049479357</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.4308198483605637</v>
+      </c>
+      <c r="D108" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B109" s="4">
+        <v>11.002583201319347</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.43005323686306118</v>
+      </c>
+      <c r="D109" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B110" s="4">
+        <v>10.820985545825117</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0.42923575216051824</v>
+      </c>
+      <c r="D110" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B111" s="4">
+        <v>10.635573979354227</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.42835780127646594</v>
+      </c>
+      <c r="D111" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B112" s="4">
+        <v>10.446773986343414</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.42741222203417933</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B113" s="4">
+        <v>10.25400153256763</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.42639610608167061</v>
+      </c>
+      <c r="D113" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B114" s="4">
+        <v>10.057501777096283</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.42531153704023217</v>
+      </c>
+      <c r="D114" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B115" s="4">
+        <v>9.8577896097693998</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.42415981712504924</v>
+      </c>
+      <c r="D115" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B116" s="4">
+        <v>9.6549434794602949</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.42294511342247804</v>
+      </c>
+      <c r="D116" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B117" s="4">
+        <v>9.4490503763734868</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.42167289523301826</v>
+      </c>
+      <c r="D117" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B118" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D118" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B119" s="4">
+        <v>16.929405006963343</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.44690302019649802</v>
+      </c>
+      <c r="D119" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B120" s="4">
+        <v>16.27140479757648</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.44531840063169853</v>
+      </c>
+      <c r="D120" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B121" s="4">
+        <v>15.605378837775278</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.4438419950168585</v>
+      </c>
+      <c r="D121" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B122" s="4">
+        <v>14.939055270112251</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.44247015843299459</v>
+      </c>
+      <c r="D122" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B123" s="4">
+        <v>14.263747843558244</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.44120293298877877</v>
+      </c>
+      <c r="D123" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B124" s="4">
+        <v>13.579487428832067</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0.4400445291801402</v>
+      </c>
+      <c r="D124" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B125" s="4">
+        <v>12.886323880113096</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.43900336799530676</v>
+      </c>
+      <c r="D125" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B126" s="4">
+        <v>12.184232576991608</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.43808292200835486</v>
+      </c>
+      <c r="D126" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B127" s="4">
+        <v>11.949020785621503</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.4372809777564905</v>
+      </c>
+      <c r="D127" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B128" s="4">
+        <v>11.710357928416869</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.43658190835935839</v>
+      </c>
+      <c r="D128" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B129" s="4">
+        <v>11.46798061486777</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.43595493815823105</v>
+      </c>
+      <c r="D129" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B130" s="4">
+        <v>11.221572268102616</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.43536178205896808</v>
+      </c>
+      <c r="D130" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B131" s="4">
+        <v>10.970894853532549</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.43477136055239773</v>
+      </c>
+      <c r="D131" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B132" s="4">
+        <v>10.715906860392808</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.43416778664106492</v>
+      </c>
+      <c r="D132" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B133" s="4">
+        <v>10.456560612737608</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.43354754433553078</v>
+      </c>
+      <c r="D133" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B134" s="4">
+        <v>10.192851714365986</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.4329048170814177</v>
+      </c>
+      <c r="D134" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B135" s="4">
+        <v>9.9248163791234454</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.43223860651670032</v>
+      </c>
+      <c r="D135" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B136" s="4">
+        <v>9.6524717088039811</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.43154539666510899</v>
+      </c>
+      <c r="D136" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B137" s="4">
+        <v>9.3754982324315908</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.4308198483605637</v>
+      </c>
+      <c r="D137" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B138" s="4">
+        <v>9.0942393793576723</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.43005323686306118</v>
+      </c>
+      <c r="D138" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B139" s="4">
+        <v>8.8061543395802282</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0.42923575216051824</v>
+      </c>
+      <c r="D139" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B140" s="4">
+        <v>8.5133558974919055</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0.42835780127646594</v>
+      </c>
+      <c r="D140" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B141" s="4">
+        <v>8.2163061262089077</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0.42741222203417933</v>
+      </c>
+      <c r="D141" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B142" s="4">
+        <v>7.9145193999347816</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.42639610608167061</v>
+      </c>
+      <c r="D142" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B143" s="4">
+        <v>7.6082012777380195</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.42531153704023217</v>
+      </c>
+      <c r="D143" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B144" s="4">
+        <v>7.2978914050463262</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.42415981712504924</v>
+      </c>
+      <c r="D144" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B145" s="4">
+        <v>6.9836867049448319</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.42294511342247804</v>
+      </c>
+      <c r="D145" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B146" s="4">
+        <v>6.6656884631899338</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.42167289523301826</v>
+      </c>
+      <c r="D146" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B147" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D147" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B148" s="4">
+        <v>17.081639567323755</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.44543446984625329</v>
+      </c>
+      <c r="D148" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B149" s="4">
+        <v>16.586849787333794</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.44307655208774349</v>
+      </c>
+      <c r="D149" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B150" s="4">
+        <v>16.085947315931197</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.44078743459634728</v>
+      </c>
+      <c r="D150" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B151" s="4">
+        <v>15.583219353005999</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.43858261435862067</v>
+      </c>
+      <c r="D151" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B152" s="4">
+        <v>15.074303077246979</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.43645197688386322</v>
+      </c>
+      <c r="D152" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B153" s="4">
+        <v>14.55924431151934</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.43439647713064894</v>
+      </c>
+      <c r="D153" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B154" s="4">
+        <v>14.037995472625754</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.43240890951520244</v>
+      </c>
+      <c r="D154" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B155" s="4">
+        <v>13.510505996339401</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0.4304815041608524</v>
+      </c>
+      <c r="D155" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B156" s="4">
+        <v>13.448072806143653</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.42861664855782899</v>
+      </c>
+      <c r="D156" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B157" s="4">
+        <v>13.384276098932556</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0.42681199862207736</v>
+      </c>
+      <c r="D157" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B158" s="4">
+        <v>13.318982516610131</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.42505188437747976</v>
+      </c>
+      <c r="D158" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B159" s="4">
+        <v>13.251999153374003</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.42331507973396382</v>
+      </c>
+      <c r="D159" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B160" s="4">
+        <v>13.183164128958895</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0.42158361413686829</v>
+      </c>
+      <c r="D160" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B161" s="4">
+        <v>13.112773119520206</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.41984889304317186</v>
+      </c>
+      <c r="D161" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B162" s="4">
+        <v>13.040413635408427</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0.41810583774670385</v>
+      </c>
+      <c r="D162" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B163" s="4">
+        <v>12.966055166220475</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0.41634945642751903</v>
+      </c>
+      <c r="D163" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B164" s="4">
+        <v>12.889656489846468</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.41457375890140075</v>
+      </c>
+      <c r="D164" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B165" s="4">
+        <v>12.811172528067917</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.41277240772696078</v>
+      </c>
+      <c r="D165" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B166" s="4">
+        <v>12.730715933702122</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.41093989022823507</v>
+      </c>
+      <c r="D166" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B167" s="4">
+        <v>12.648078734576602</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.40906926123300957</v>
+      </c>
+      <c r="D167" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B168" s="4">
+        <v>12.5631904509927</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.40715166568569761</v>
+      </c>
+      <c r="D168" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B169" s="4">
+        <v>12.475995845552612</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0.40517968096627699</v>
+      </c>
+      <c r="D169" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B170" s="4">
+        <v>12.386438561394048</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0.40314571082612582</v>
+      </c>
+      <c r="D170" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B171" s="4">
+        <v>12.294875077148147</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.40104554485221805</v>
+      </c>
+      <c r="D171" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B172" s="4">
+        <v>12.200922681214218</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0.39887814119282272</v>
+      </c>
+      <c r="D172" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B173" s="4">
+        <v>12.102670562933049</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0.39663911572765537</v>
+      </c>
+      <c r="D173" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B174" s="4">
+        <v>12.001868675332148</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0.39432538655058413</v>
+      </c>
+      <c r="D174" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B175" s="4">
+        <v>11.898730426493374</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0.39193608551956521</v>
+      </c>
+      <c r="D175" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B176" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D176" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B177" s="4">
+        <v>16.996659789270211</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0.44543446984625329</v>
+      </c>
+      <c r="D177" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B178" s="4">
+        <v>16.416022414930687</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0.44307655208774349</v>
+      </c>
+      <c r="D178" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B179" s="4">
+        <v>15.828407725170448</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0.44078743459634728</v>
+      </c>
+      <c r="D179" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B180" s="4">
+        <v>15.238011621711488</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0.43858261435862067</v>
+      </c>
+      <c r="D180" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B181" s="4">
+        <v>14.640515884775105</v>
+      </c>
+      <c r="C181" s="4">
+        <v>0.43645197688386322</v>
+      </c>
+      <c r="D181" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B182" s="4">
+        <v>14.035964305235657</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0.43439647713064894</v>
+      </c>
+      <c r="D182" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B183" s="4">
+        <v>13.424309860684911</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0.43240890951520244</v>
+      </c>
+      <c r="D183" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B184" s="4">
+        <v>12.805504044426877</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.4304815041608524</v>
+      </c>
+      <c r="D184" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B185" s="4">
+        <v>12.650810237628733</v>
+      </c>
+      <c r="C185" s="4">
+        <v>0.42861664855782899</v>
+      </c>
+      <c r="D185" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B186" s="4">
+        <v>12.493832948144657</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0.42681199862207736</v>
+      </c>
+      <c r="D186" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B187" s="4">
+        <v>12.334448344401739</v>
+      </c>
+      <c r="C187" s="4">
+        <v>0.42505188437747976</v>
+      </c>
+      <c r="D187" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B188" s="4">
+        <v>12.172481907086068</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.42331507973396382</v>
+      </c>
+      <c r="D188" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B189" s="4">
+        <v>12.00779342483791</v>
+      </c>
+      <c r="C189" s="4">
+        <v>0.42158361413686829</v>
+      </c>
+      <c r="D189" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B190" s="4">
+        <v>11.840661241648265</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0.41984889304317186</v>
+      </c>
+      <c r="D190" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B191" s="4">
+        <v>11.670720907673251</v>
+      </c>
+      <c r="C191" s="4">
+        <v>0.41810583774670385</v>
+      </c>
+      <c r="D191" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B192" s="4">
+        <v>11.497960418225913</v>
+      </c>
+      <c r="C192" s="4">
+        <v>0.41634945642751903</v>
+      </c>
+      <c r="D192" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B193" s="4">
+        <v>11.322360026471827</v>
+      </c>
+      <c r="C193" s="4">
+        <v>0.41457375890140075</v>
+      </c>
+      <c r="D193" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B194" s="4">
+        <v>11.143898755086537</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0.41277240772696078</v>
+      </c>
+      <c r="D194" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B195" s="4">
+        <v>10.962693827294306</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0.41093989022823507</v>
+      </c>
+      <c r="D195" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B196" s="4">
+        <v>10.778586104861446</v>
+      </c>
+      <c r="C196" s="4">
+        <v>0.40906926123300957</v>
+      </c>
+      <c r="D196" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B197" s="4">
+        <v>10.591540770770971</v>
+      </c>
+      <c r="C197" s="4">
+        <v>0.40715166568569761</v>
+      </c>
+      <c r="D197" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B198" s="4">
+        <v>10.401539463850122</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0.40517968096627699</v>
+      </c>
+      <c r="D198" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B199" s="4">
+        <v>10.208566280815187</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0.40314571082612582</v>
+      </c>
+      <c r="D199" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B200" s="4">
+        <v>10.012945151924429</v>
+      </c>
+      <c r="C200" s="4">
+        <v>0.40104554485221805</v>
+      </c>
+      <c r="D200" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B201" s="4">
+        <v>9.814392720137171</v>
+      </c>
+      <c r="C201" s="4">
+        <v>0.39887814119282272</v>
+      </c>
+      <c r="D201" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B202" s="4">
+        <v>9.6110396954744637</v>
+      </c>
+      <c r="C202" s="4">
+        <v>0.39663911572765537</v>
+      </c>
+      <c r="D202" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B203" s="4">
+        <v>9.4046770785154479</v>
+      </c>
+      <c r="C203" s="4">
+        <v>0.39432538655058413</v>
+      </c>
+      <c r="D203" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B204" s="4">
+        <v>9.1955561310470895</v>
+      </c>
+      <c r="C204" s="4">
+        <v>0.39193608551956521</v>
+      </c>
+      <c r="D204" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B205" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C205" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D205" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B206" s="4">
+        <v>16.911680011216664</v>
+      </c>
+      <c r="C206" s="4">
+        <v>0.44543446984625329</v>
+      </c>
+      <c r="D206" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B207" s="4">
+        <v>16.245195042527588</v>
+      </c>
+      <c r="C207" s="4">
+        <v>0.44307655208774349</v>
+      </c>
+      <c r="D207" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B208" s="4">
+        <v>15.570868134409704</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0.44078743459634728</v>
+      </c>
+      <c r="D208" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B209" s="4">
+        <v>14.892803890416983</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0.43858261435862067</v>
+      </c>
+      <c r="D209" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B210" s="4">
+        <v>14.206728692303237</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0.43645197688386322</v>
+      </c>
+      <c r="D210" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B211" s="4">
+        <v>13.512684298951969</v>
+      </c>
+      <c r="C211" s="4">
+        <v>0.43439647713064894</v>
+      </c>
+      <c r="D211" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B212" s="4">
+        <v>12.810624248744071</v>
+      </c>
+      <c r="C212" s="4">
+        <v>0.43240890951520244</v>
+      </c>
+      <c r="D212" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B213" s="4">
+        <v>12.10050209251435</v>
+      </c>
+      <c r="C213" s="4">
+        <v>0.4304815041608524</v>
+      </c>
+      <c r="D213" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B214" s="4">
+        <v>11.853547669113819</v>
+      </c>
+      <c r="C214" s="4">
+        <v>0.42861664855782899</v>
+      </c>
+      <c r="D214" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B215" s="4">
+        <v>11.603389797356755</v>
+      </c>
+      <c r="C215" s="4">
+        <v>0.42681199862207736</v>
+      </c>
+      <c r="D215" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B216" s="4">
+        <v>11.349914172193348</v>
+      </c>
+      <c r="C216" s="4">
+        <v>0.42505188437747976</v>
+      </c>
+      <c r="D216" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B217" s="4">
+        <v>11.092964660798136</v>
+      </c>
+      <c r="C217" s="4">
+        <v>0.42331507973396382</v>
+      </c>
+      <c r="D217" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B218" s="4">
+        <v>10.832422720716927</v>
+      </c>
+      <c r="C218" s="4">
+        <v>0.42158361413686829</v>
+      </c>
+      <c r="D218" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B219" s="4">
+        <v>10.568549363776322</v>
+      </c>
+      <c r="C219" s="4">
+        <v>0.41984889304317186</v>
+      </c>
+      <c r="D219" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B220" s="4">
+        <v>10.30102817993807</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0.41810583774670385</v>
+      </c>
+      <c r="D220" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B221" s="4">
+        <v>10.029865670231356</v>
+      </c>
+      <c r="C221" s="4">
+        <v>0.41634945642751903</v>
+      </c>
+      <c r="D221" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B222" s="4">
+        <v>9.75506356309719</v>
+      </c>
+      <c r="C222" s="4">
+        <v>0.41457375890140075</v>
+      </c>
+      <c r="D222" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B223" s="4">
+        <v>9.4766249821051591</v>
+      </c>
+      <c r="C223" s="4">
+        <v>0.41277240772696078</v>
+      </c>
+      <c r="D223" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B224" s="4">
+        <v>9.1946717208864914</v>
+      </c>
+      <c r="C224" s="4">
+        <v>0.41093989022823507</v>
+      </c>
+      <c r="D224" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B225" s="4">
+        <v>8.9090934751462942</v>
+      </c>
+      <c r="C225" s="4">
+        <v>0.40906926123300957</v>
+      </c>
+      <c r="D225" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B226" s="4">
+        <v>8.6198910905492436</v>
+      </c>
+      <c r="C226" s="4">
+        <v>0.40715166568569761</v>
+      </c>
+      <c r="D226" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B227" s="4">
+        <v>8.3270830821476292</v>
+      </c>
+      <c r="C227" s="4">
+        <v>0.40517968096627699</v>
+      </c>
+      <c r="D227" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B228" s="4">
+        <v>8.0306940002363305</v>
+      </c>
+      <c r="C228" s="4">
+        <v>0.40314571082612582</v>
+      </c>
+      <c r="D228" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B229" s="4">
+        <v>7.7310152267007153</v>
+      </c>
+      <c r="C229" s="4">
+        <v>0.40104554485221805</v>
+      </c>
+      <c r="D229" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B230" s="4">
+        <v>7.4278627590601225</v>
+      </c>
+      <c r="C230" s="4">
+        <v>0.39887814119282272</v>
+      </c>
+      <c r="D230" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B231" s="4">
+        <v>7.1194088280158834</v>
+      </c>
+      <c r="C231" s="4">
+        <v>0.39663911572765537</v>
+      </c>
+      <c r="D231" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B232" s="4">
+        <v>6.8074854816987509</v>
+      </c>
+      <c r="C232" s="4">
+        <v>0.39432538655058413</v>
+      </c>
+      <c r="D232" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B233" s="4">
+        <v>6.4923818356008027</v>
+      </c>
+      <c r="C233" s="4">
+        <v>0.39193608551956521</v>
+      </c>
+      <c r="D233" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B234" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C234" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D234" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B235" s="4">
+        <v>17.06027191405218</v>
+      </c>
+      <c r="C235" s="4">
+        <v>0.44368173295240909</v>
+      </c>
+      <c r="D235" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B236" s="4">
+        <v>16.558638505292645</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0.44071320695977473</v>
+      </c>
+      <c r="D236" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B237" s="4">
+        <v>16.050299063007937</v>
+      </c>
+      <c r="C237" s="4">
+        <v>0.43773322143295396</v>
+      </c>
+      <c r="D237" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B238" s="4">
+        <v>15.549025304776777</v>
+      </c>
+      <c r="C238" s="4">
+        <v>0.43474889727117211</v>
+      </c>
+      <c r="D238" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B239" s="4">
+        <v>15.040096617789422</v>
+      </c>
+      <c r="C239" s="4">
+        <v>0.43176600542941551</v>
+      </c>
+      <c r="D239" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B240" s="4">
+        <v>14.523787143737207</v>
+      </c>
+      <c r="C240" s="4">
+        <v>0.42879057950766142</v>
+      </c>
+      <c r="D240" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B241" s="4">
+        <v>14.000338803829653</v>
+      </c>
+      <c r="C241" s="4">
+        <v>0.42582726407669219</v>
+      </c>
+      <c r="D241" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B242" s="4">
+        <v>13.469972017818087</v>
+      </c>
+      <c r="C242" s="4">
+        <v>0.42288009600670051</v>
+      </c>
+      <c r="D242" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B243" s="4">
+        <v>13.405211489392263</v>
+      </c>
+      <c r="C243" s="4">
+        <v>0.41995202757901673</v>
+      </c>
+      <c r="D243" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B244" s="4">
+        <v>13.338040702016917</v>
+      </c>
+      <c r="C244" s="4">
+        <v>0.41704219003008863</v>
+      </c>
+      <c r="D244" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B245" s="4">
+        <v>13.268516268171862</v>
+      </c>
+      <c r="C245" s="4">
+        <v>0.4141486300465777</v>
+      </c>
+      <c r="D245" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B246" s="4">
+        <v>13.196675442620913</v>
+      </c>
+      <c r="C246" s="4">
+        <v>0.41126804869304495</v>
+      </c>
+      <c r="D246" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B247" s="4">
+        <v>13.12253581547809</v>
+      </c>
+      <c r="C247" s="4">
+        <v>0.40839571459776636</v>
+      </c>
+      <c r="D247" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B248" s="4">
+        <v>13.047164565294761</v>
+      </c>
+      <c r="C248" s="4">
+        <v>0.40553002189804643</v>
+      </c>
+      <c r="D248" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B249" s="4">
+        <v>12.969483736247781</v>
+      </c>
+      <c r="C249" s="4">
+        <v>0.40266710715699561</v>
+      </c>
+      <c r="D249" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B250" s="4">
+        <v>12.889472143908195</v>
+      </c>
+      <c r="C250" s="4">
+        <v>0.39979898346681064</v>
+      </c>
+      <c r="D250" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B251" s="4">
+        <v>12.8070919545604</v>
+      </c>
+      <c r="C251" s="4">
+        <v>0.39691640511211695</v>
+      </c>
+      <c r="D251" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B252" s="4">
+        <v>12.72230448117986</v>
+      </c>
+      <c r="C252" s="4">
+        <v>0.39401034341277852</v>
+      </c>
+      <c r="D252" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B253" s="4">
+        <v>12.63581631290956</v>
+      </c>
+      <c r="C253" s="4">
+        <v>0.39107532921544336</v>
+      </c>
+      <c r="D253" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B254" s="4">
+        <v>12.546874546944453</v>
+      </c>
+      <c r="C254" s="4">
+        <v>0.38810723869679009</v>
+      </c>
+      <c r="D254" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B255" s="4">
+        <v>12.4554729087202</v>
+      </c>
+      <c r="C255" s="4">
+        <v>0.38510042893306601</v>
+      </c>
+      <c r="D255" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B256" s="4">
+        <v>12.361594033240356</v>
+      </c>
+      <c r="C256" s="4">
+        <v>0.38204834545023109</v>
+      </c>
+      <c r="D256" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B257" s="4">
+        <v>12.265222400163886</v>
+      </c>
+      <c r="C257" s="4">
+        <v>0.37894473762390651</v>
+      </c>
+      <c r="D257" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B258" s="4">
+        <v>12.167249712051134</v>
+      </c>
+      <c r="C258" s="4">
+        <v>0.37578669736118164</v>
+      </c>
+      <c r="D258" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B259" s="4">
+        <v>12.066745935779915</v>
+      </c>
+      <c r="C259" s="4">
+        <v>0.37256984035327495</v>
+      </c>
+      <c r="D259" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B260" s="4">
+        <v>11.963706903153312</v>
+      </c>
+      <c r="C260" s="4">
+        <v>0.36928882752561937</v>
+      </c>
+      <c r="D260" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B261" s="4">
+        <v>11.858112393914752</v>
+      </c>
+      <c r="C261" s="4">
+        <v>0.36593680055348599</v>
+      </c>
+      <c r="D261" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B262" s="4">
+        <v>11.749973136506446</v>
+      </c>
+      <c r="C262" s="4">
+        <v>0.36250993961167999</v>
+      </c>
+      <c r="D262" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B263" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C263" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D263" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B264" s="4">
+        <v>16.975398438348911</v>
+      </c>
+      <c r="C264" s="4">
+        <v>0.44368173295240909</v>
+      </c>
+      <c r="D264" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B265" s="4">
+        <v>16.388101679873746</v>
+      </c>
+      <c r="C265" s="4">
+        <v>0.44071320695977473</v>
+      </c>
+      <c r="D265" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B266" s="4">
+        <v>15.793330208697389</v>
+      </c>
+      <c r="C266" s="4">
+        <v>0.43773322143295396</v>
+      </c>
+      <c r="D266" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B267" s="4">
+        <v>15.204575058155079</v>
+      </c>
+      <c r="C267" s="4">
+        <v>0.43474889727117211</v>
+      </c>
+      <c r="D267" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E267" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B268" s="4">
+        <v>14.607293770924535</v>
+      </c>
+      <c r="C268" s="4">
+        <v>0.43176600542941551</v>
+      </c>
+      <c r="D268" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B269" s="4">
+        <v>14.001781518635873</v>
+      </c>
+      <c r="C269" s="4">
+        <v>0.42879057950766142</v>
+      </c>
+      <c r="D269" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B270" s="4">
+        <v>13.388299392436371</v>
+      </c>
+      <c r="C270" s="4">
+        <v>0.42582726407669219</v>
+      </c>
+      <c r="D270" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B271" s="4">
+        <v>12.767085200156197</v>
+      </c>
+      <c r="C271" s="4">
+        <v>0.42288009600670051</v>
+      </c>
+      <c r="D271" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B272" s="4">
+        <v>12.610489933554454</v>
+      </c>
+      <c r="C272" s="4">
+        <v>0.41995202757901673</v>
+      </c>
+      <c r="D272" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B273" s="4">
+        <v>12.450673548182692</v>
+      </c>
+      <c r="C273" s="4">
+        <v>0.41704219003008863</v>
+      </c>
+      <c r="D273" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E273" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B274" s="4">
+        <v>12.287712542044364</v>
+      </c>
+      <c r="C274" s="4">
+        <v>0.4141486300465777</v>
+      </c>
+      <c r="D274" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B275" s="4">
+        <v>12.121664905033715</v>
+      </c>
+      <c r="C275" s="4">
+        <v>0.41126804869304495</v>
+      </c>
+      <c r="D275" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B276" s="4">
+        <v>11.952570546866255</v>
+      </c>
+      <c r="C276" s="4">
+        <v>0.40839571459776636</v>
+      </c>
+      <c r="D276" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B277" s="4">
+        <v>11.78141758219828</v>
+      </c>
+      <c r="C277" s="4">
+        <v>0.40553002189804643</v>
+      </c>
+      <c r="D277" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B278" s="4">
+        <v>11.607241091751954</v>
+      </c>
+      <c r="C278" s="4">
+        <v>0.40266710715699561</v>
+      </c>
+      <c r="D278" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B279" s="4">
+        <v>11.430048586295049</v>
+      </c>
+      <c r="C279" s="4">
+        <v>0.39979898346681064</v>
+      </c>
+      <c r="D279" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B280" s="4">
+        <v>11.249834789304836</v>
+      </c>
+      <c r="C280" s="4">
+        <v>0.39691640511211695</v>
+      </c>
+      <c r="D280" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B281" s="4">
+        <v>11.066596188524962</v>
+      </c>
+      <c r="C281" s="4">
+        <v>0.39401034341277852</v>
+      </c>
+      <c r="D281" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B282" s="4">
+        <v>10.880973718818627</v>
+      </c>
+      <c r="C282" s="4">
+        <v>0.39107532921544336</v>
+      </c>
+      <c r="D282" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B283" s="4">
+        <v>10.69234074906811</v>
+      </c>
+      <c r="C283" s="4">
+        <v>0.38810723869679009</v>
+      </c>
+      <c r="D283" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B284" s="4">
+        <v>10.500728270144089</v>
+      </c>
+      <c r="C284" s="4">
+        <v>0.38510042893306601</v>
+      </c>
+      <c r="D284" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B285" s="4">
+        <v>10.306159906159255</v>
+      </c>
+      <c r="C285" s="4">
+        <v>0.38204834545023109</v>
+      </c>
+      <c r="D285" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B286" s="4">
+        <v>10.108663212625679</v>
+      </c>
+      <c r="C286" s="4">
+        <v>0.37894473762390651</v>
+      </c>
+      <c r="D286" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B287" s="4">
+        <v>9.9090070661210294</v>
+      </c>
+      <c r="C287" s="4">
+        <v>0.37578669736118164</v>
+      </c>
+      <c r="D287" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B288" s="4">
+        <v>9.7064612703600393</v>
+      </c>
+      <c r="C288" s="4">
+        <v>0.37256984035327495</v>
+      </c>
+      <c r="D288" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B289" s="4">
+        <v>9.5010698568059055</v>
+      </c>
+      <c r="C289" s="4">
+        <v>0.36928882752561937</v>
+      </c>
+      <c r="D289" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B290" s="4">
+        <v>9.2928667280629469</v>
+      </c>
+      <c r="C290" s="4">
+        <v>0.36593680055348599</v>
+      </c>
+      <c r="D290" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B291" s="4">
+        <v>9.0819129973406714</v>
+      </c>
+      <c r="C291" s="4">
+        <v>0.36250993961167999</v>
+      </c>
+      <c r="D291" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B292" s="4">
+        <v>16.432026785762709</v>
+      </c>
+      <c r="C292" s="4">
+        <v>0.44781782545223453</v>
+      </c>
+      <c r="D292" s="4">
+        <v>9.1177144774061496</v>
+      </c>
+      <c r="E292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B293" s="4">
+        <v>16.890524962645635</v>
+      </c>
+      <c r="C293" s="4">
+        <v>0.44368173295240909</v>
+      </c>
+      <c r="D293" s="4">
+        <v>9.0521156337503523</v>
+      </c>
+      <c r="E293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B294" s="4">
+        <v>16.217564854454853</v>
+      </c>
+      <c r="C294" s="4">
+        <v>0.44071320695977473</v>
+      </c>
+      <c r="D294" s="4">
+        <v>8.9865167900945604</v>
+      </c>
+      <c r="E294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B295" s="4">
+        <v>15.536361354386841</v>
+      </c>
+      <c r="C295" s="4">
+        <v>0.43773322143295396</v>
+      </c>
+      <c r="D295" s="4">
+        <v>8.9209179464387667</v>
+      </c>
+      <c r="E295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B296" s="4">
+        <v>14.860124811533387</v>
+      </c>
+      <c r="C296" s="4">
+        <v>0.43474889727117211</v>
+      </c>
+      <c r="D296" s="4">
+        <v>8.8553191027829747</v>
+      </c>
+      <c r="E296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B297" s="4">
+        <v>14.174490924059656</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0.43176600542941551</v>
+      </c>
+      <c r="D297" s="4">
+        <v>8.7897202591271792</v>
+      </c>
+      <c r="E297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B298" s="4">
+        <v>13.479775893534537</v>
+      </c>
+      <c r="C298" s="4">
+        <v>0.42879057950766142</v>
+      </c>
+      <c r="D298" s="4">
+        <v>8.7241214154713838</v>
+      </c>
+      <c r="E298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B299" s="4">
+        <v>12.776259981043101</v>
+      </c>
+      <c r="C299" s="4">
+        <v>0.42582726407669219</v>
+      </c>
+      <c r="D299" s="4">
+        <v>8.65852257181559</v>
+      </c>
+      <c r="E299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B300" s="4">
+        <v>12.064198382494308</v>
+      </c>
+      <c r="C300" s="4">
+        <v>0.42288009600670051</v>
+      </c>
+      <c r="D300" s="4">
+        <v>8.5929237281597963</v>
+      </c>
+      <c r="E300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B301" s="4">
+        <v>11.815768377716649</v>
+      </c>
+      <c r="C301" s="4">
+        <v>0.41995202757901673</v>
+      </c>
+      <c r="D301" s="4">
+        <v>8.5273248845040008</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B302" s="4">
+        <v>11.563306394348473</v>
+      </c>
+      <c r="C302" s="4">
+        <v>0.41704219003008863</v>
+      </c>
+      <c r="D302" s="4">
+        <v>8.4617260408482071</v>
+      </c>
+      <c r="E302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B303" s="4">
+        <v>11.306908815916874</v>
+      </c>
+      <c r="C303" s="4">
+        <v>0.4141486300465777</v>
+      </c>
+      <c r="D303" s="4">
+        <v>8.3961271971924134</v>
+      </c>
+      <c r="E303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B304" s="4">
+        <v>11.046654367446516</v>
+      </c>
+      <c r="C304" s="4">
+        <v>0.41126804869304495</v>
+      </c>
+      <c r="D304" s="4">
+        <v>8.3305283535366197</v>
+      </c>
+      <c r="E304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B305" s="4">
+        <v>10.782605278254424</v>
+      </c>
+      <c r="C305" s="4">
+        <v>0.40839571459776636</v>
+      </c>
+      <c r="D305" s="4">
+        <v>8.2649295098808242</v>
+      </c>
+      <c r="E305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B306" s="4">
+        <v>10.515670599101798</v>
+      </c>
+      <c r="C306" s="4">
+        <v>0.40553002189804643</v>
+      </c>
+      <c r="D306" s="4">
+        <v>8.1993306662250287</v>
+      </c>
+      <c r="E306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B307" s="4">
+        <v>10.244998447256124</v>
+      </c>
+      <c r="C307" s="4">
+        <v>0.40266710715699561</v>
+      </c>
+      <c r="D307" s="4">
+        <v>8.1337318225692368</v>
+      </c>
+      <c r="E307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B308" s="4">
+        <v>9.9706250286818996</v>
+      </c>
+      <c r="C308" s="4">
+        <v>0.39979898346681064</v>
+      </c>
+      <c r="D308" s="4">
+        <v>8.0681329789134431</v>
+      </c>
+      <c r="E308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B309" s="4">
+        <v>9.6925776240492691</v>
+      </c>
+      <c r="C309" s="4">
+        <v>0.39691640511211695</v>
+      </c>
+      <c r="D309" s="4">
+        <v>8.0025341352576458</v>
+      </c>
+      <c r="E309" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B310" s="4">
+        <v>9.410887895870065</v>
+      </c>
+      <c r="C310" s="4">
+        <v>0.39401034341277852</v>
+      </c>
+      <c r="D310" s="4">
+        <v>7.9369352916018538</v>
+      </c>
+      <c r="E310" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B311" s="4">
+        <v>9.1261311247276957</v>
+      </c>
+      <c r="C311" s="4">
+        <v>0.39107532921544336</v>
+      </c>
+      <c r="D311" s="4">
+        <v>7.8713364479460584</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B312" s="4">
+        <v>8.8378069511917712</v>
+      </c>
+      <c r="C312" s="4">
+        <v>0.38810723869679009</v>
+      </c>
+      <c r="D312" s="4">
+        <v>7.8057376042902646</v>
+      </c>
+      <c r="E312" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B313" s="4">
+        <v>8.5459836315679762</v>
+      </c>
+      <c r="C313" s="4">
+        <v>0.38510042893306601</v>
+      </c>
+      <c r="D313" s="4">
+        <v>7.74013876063447</v>
+      </c>
+      <c r="E313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B314" s="4">
+        <v>8.2507257790781523</v>
+      </c>
+      <c r="C314" s="4">
+        <v>0.38204834545023109</v>
+      </c>
+      <c r="D314" s="4">
+        <v>7.6745399169786772</v>
+      </c>
+      <c r="E314" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B315" s="4">
+        <v>7.9521040250874799</v>
+      </c>
+      <c r="C315" s="4">
+        <v>0.37894473762390651</v>
+      </c>
+      <c r="D315" s="4">
+        <v>7.6089410733228826</v>
+      </c>
+      <c r="E315" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B316" s="4">
+        <v>7.6507644201909271</v>
+      </c>
+      <c r="C316" s="4">
+        <v>0.37578669736118164</v>
+      </c>
+      <c r="D316" s="4">
+        <v>7.5433422296670889</v>
+      </c>
+      <c r="E316" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B317" s="4">
+        <v>7.3461766049401653</v>
+      </c>
+      <c r="C317" s="4">
+        <v>0.37256984035327495</v>
+      </c>
+      <c r="D317" s="4">
+        <v>7.4777433860112952</v>
+      </c>
+      <c r="E317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B318" s="4">
+        <v>7.0384328104585023</v>
+      </c>
+      <c r="C318" s="4">
+        <v>0.36928882752561937</v>
+      </c>
+      <c r="D318" s="4">
+        <v>7.4121445423554979</v>
+      </c>
+      <c r="E318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B319" s="4">
+        <v>6.727621062211143</v>
+      </c>
+      <c r="C319" s="4">
+        <v>0.36593680055348599</v>
+      </c>
+      <c r="D319" s="4">
+        <v>7.346545698699706</v>
+      </c>
+      <c r="E319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B320" s="4">
+        <v>6.4138528581748995</v>
+      </c>
+      <c r="C320" s="4">
+        <v>0.36250993961167999</v>
+      </c>
+      <c r="D320" s="4">
+        <v>7.2809468550439105</v>
+      </c>
+      <c r="E320" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,9 +6196,9 @@
       <selection activeCell="A15" sqref="A15:E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +6290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +6382,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +6474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +6566,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2122,7 +6598,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2154,7 +6630,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +6722,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +6814,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +6906,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +6998,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2554,7 +7030,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2586,7 +7062,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2618,7 +7094,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2650,7 +7126,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +7168,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2022</v>
       </c>
@@ -2709,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -2726,7 +7202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2024</v>
       </c>
@@ -2747,7 +7223,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2025</v>
       </c>
@@ -2768,7 +7244,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2026</v>
       </c>
@@ -2789,7 +7265,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2027</v>
       </c>
@@ -2810,7 +7286,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2028</v>
       </c>
@@ -2831,7 +7307,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2029</v>
       </c>
@@ -2852,7 +7328,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2030</v>
       </c>
@@ -2873,7 +7349,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2031</v>
       </c>
@@ -2894,7 +7370,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2032</v>
       </c>
@@ -2915,7 +7391,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2033</v>
       </c>
@@ -2936,7 +7412,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2034</v>
       </c>
@@ -2957,7 +7433,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2035</v>
       </c>
@@ -2978,7 +7454,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2036</v>
       </c>
@@ -2999,7 +7475,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2037</v>
       </c>
@@ -3020,7 +7496,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2038</v>
       </c>
@@ -3041,7 +7517,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2039</v>
       </c>
@@ -3062,7 +7538,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2040</v>
       </c>
@@ -3083,7 +7559,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2041</v>
       </c>
@@ -3104,7 +7580,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2042</v>
       </c>
@@ -3125,7 +7601,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2043</v>
       </c>
@@ -3146,7 +7622,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2044</v>
       </c>
@@ -3167,7 +7643,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2045</v>
       </c>
@@ -3188,7 +7664,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2046</v>
       </c>
@@ -3209,7 +7685,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2047</v>
       </c>
@@ -3230,7 +7706,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2048</v>
       </c>
@@ -3251,7 +7727,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2049</v>
       </c>
@@ -3272,7 +7748,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2050</v>
       </c>
@@ -3293,7 +7769,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2022</v>
       </c>
@@ -3314,7 +7790,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2023</v>
       </c>
@@ -3335,7 +7811,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2024</v>
       </c>
@@ -3356,7 +7832,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2025</v>
       </c>
@@ -3377,7 +7853,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2026</v>
       </c>
@@ -3398,7 +7874,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2027</v>
       </c>
@@ -3419,7 +7895,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2028</v>
       </c>
@@ -3440,7 +7916,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2029</v>
       </c>
@@ -3461,7 +7937,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2030</v>
       </c>
@@ -3482,7 +7958,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2031</v>
       </c>
@@ -3503,7 +7979,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2032</v>
       </c>
@@ -3524,7 +8000,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2033</v>
       </c>
@@ -3545,7 +8021,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2034</v>
       </c>
@@ -3566,7 +8042,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2035</v>
       </c>
@@ -3587,7 +8063,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2036</v>
       </c>
@@ -3608,7 +8084,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2037</v>
       </c>
@@ -3629,7 +8105,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2038</v>
       </c>
@@ -3650,7 +8126,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2039</v>
       </c>
@@ -3671,7 +8147,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2040</v>
       </c>
@@ -3692,7 +8168,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2041</v>
       </c>
@@ -3713,7 +8189,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2042</v>
       </c>
@@ -3734,7 +8210,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2043</v>
       </c>
@@ -3755,7 +8231,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2044</v>
       </c>
@@ -3776,7 +8252,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2045</v>
       </c>
@@ -3797,7 +8273,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2046</v>
       </c>
@@ -3818,7 +8294,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2047</v>
       </c>
@@ -3839,7 +8315,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2048</v>
       </c>
@@ -3860,7 +8336,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2049</v>
       </c>
@@ -3881,7 +8357,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2050</v>
       </c>
@@ -3902,7 +8378,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3913,7 +8389,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>

--- a/data/LEAP_Supply_Emissions.xlsx
+++ b/data/LEAP_Supply_Emissions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giann\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz_Template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D5E59-D490-4C07-893D-53AF44BE292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE4428-A9C4-46F7-A8A3-B80A6C9057C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{01BF1780-3214-47DB-9C17-C2F5550468A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sensitivity" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,8 +95,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;&quot;\-&quot;&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;&quot;\-&quot;&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,14 +146,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -491,23 +491,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F58F65-D173-4C9B-B57C-646E19A136BF}">
   <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -528,7 +528,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -591,7 +591,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2031</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2032</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2033</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2034</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2035</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2036</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2037</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2038</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2039</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2040</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2041</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2042</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2043</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2044</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2045</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2046</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2047</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2048</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2049</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2050</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2022</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2023</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2024</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2026</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2027</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2028</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2029</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2030</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2031</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2032</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2033</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2034</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2035</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2036</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2037</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2038</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2039</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2040</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2041</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2042</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2043</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2044</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2045</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2046</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2047</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2048</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2049</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2050</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2022</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2023</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2024</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2025</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2026</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2027</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2028</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2029</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2030</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2031</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2032</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2033</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2034</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2035</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2036</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2037</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2038</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2039</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2040</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2041</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2042</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2043</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2044</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2045</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2046</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2047</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2048</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2049</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2050</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2022</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2023</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2024</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2025</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2026</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2027</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2028</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2029</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2030</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2031</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2032</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2033</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2034</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2035</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2036</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2037</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2038</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2039</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2040</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2041</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2042</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2043</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2044</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2045</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2046</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2047</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2048</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2049</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2050</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2022</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2023</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2024</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2025</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2026</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2027</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2028</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2029</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2030</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2031</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2032</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2033</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2034</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2035</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2036</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2037</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2038</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2039</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2040</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2041</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2042</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2043</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2044</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2045</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2046</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2047</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2048</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2049</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2050</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2022</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2023</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2024</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2025</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2026</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2027</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2028</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2029</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2030</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2031</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2032</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2033</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2034</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2035</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2036</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2037</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2038</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2039</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2040</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2041</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2042</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2043</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2044</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2045</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2046</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2047</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2048</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2049</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2050</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2022</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2023</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2024</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2025</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2026</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2027</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2028</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2029</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2030</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2031</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2032</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2033</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2034</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2035</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2036</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2037</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2038</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2039</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2040</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2041</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2042</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2043</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2044</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2045</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2046</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2047</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2048</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2049</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2050</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2022</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2023</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2024</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2025</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2026</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2027</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2028</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2029</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2030</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2031</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2032</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2033</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2034</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2035</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2036</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2037</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2038</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2039</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2040</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2041</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2042</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2043</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2044</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2045</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2046</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2047</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2048</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2049</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2050</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2022</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2023</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2024</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2025</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2026</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2027</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2028</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2029</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2030</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2031</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2032</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2033</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2034</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2035</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2036</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2037</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2038</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2039</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2040</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2041</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2042</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2043</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2044</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2045</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2046</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2047</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2048</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2049</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2050</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2022</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2023</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2024</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2025</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2026</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2027</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2028</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2029</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2030</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2031</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2032</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2033</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2034</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2035</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2036</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2037</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2038</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2039</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2040</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2041</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2042</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2043</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2044</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2045</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2046</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2047</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2048</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2049</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2050</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2022</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2023</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2024</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2025</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2026</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2027</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2028</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2029</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2030</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2031</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2032</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2033</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2034</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2035</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2036</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2037</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2038</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2039</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2040</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2041</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2042</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2043</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2044</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2045</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2046</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2047</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2048</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2049</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2050</v>
       </c>
@@ -6192,13 +6192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD679B95-863C-438C-841F-851E5A114106}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6598,7 +6598,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6630,7 +6630,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7030,7 +7030,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7062,7 +7062,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7094,7 +7094,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7126,7 +7126,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2022</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2023</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2024</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2025</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2026</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2027</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2028</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2029</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2030</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2031</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2032</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2033</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2034</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2035</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2036</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2037</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2038</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2039</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2040</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2041</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2042</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2043</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2044</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2045</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2046</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2047</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2048</v>
       </c>
@@ -7727,7 +7727,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2049</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2050</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2022</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2023</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2024</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2025</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2026</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2027</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2028</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2029</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2030</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2031</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2032</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2033</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2034</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2035</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2036</v>
       </c>
@@ -8084,7 +8084,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2037</v>
       </c>
@@ -8105,7 +8105,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2038</v>
       </c>
@@ -8126,7 +8126,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2039</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2040</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2041</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2042</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2043</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2044</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2045</v>
       </c>
@@ -8273,7 +8273,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2046</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2047</v>
       </c>
@@ -8315,7 +8315,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2048</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2049</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2050</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8389,7 +8389,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
